--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Xcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Xcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +546,10 @@
         <v>0.652628</v>
       </c>
       <c r="I2">
-        <v>0.2457683414549645</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="J2">
-        <v>0.2457683414549645</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01506066666666667</v>
+        <v>0.044302</v>
       </c>
       <c r="N2">
-        <v>0.045182</v>
+        <v>0.132906</v>
       </c>
       <c r="O2">
-        <v>0.008628232818297613</v>
+        <v>0.02358675946309446</v>
       </c>
       <c r="P2">
-        <v>0.008628232818297613</v>
+        <v>0.02371390862331898</v>
       </c>
       <c r="Q2">
-        <v>0.003276337588444444</v>
+        <v>0.009637575218666667</v>
       </c>
       <c r="R2">
-        <v>0.029487038296</v>
+        <v>0.086738176968</v>
       </c>
       <c r="S2">
-        <v>0.002120546469440298</v>
+        <v>0.005709744440204547</v>
       </c>
       <c r="T2">
-        <v>0.002120546469440298</v>
+        <v>0.00574052396342835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +608,10 @@
         <v>0.652628</v>
       </c>
       <c r="I3">
-        <v>0.2457683414549645</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="J3">
-        <v>0.2457683414549645</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.034921333333333</v>
+        <v>1.334208333333333</v>
       </c>
       <c r="N3">
-        <v>3.104764</v>
+        <v>4.002625</v>
       </c>
       <c r="O3">
-        <v>0.592904843474591</v>
+        <v>0.7103438000990813</v>
       </c>
       <c r="P3">
-        <v>0.5929048434745909</v>
+        <v>0.7141730509037375</v>
       </c>
       <c r="Q3">
-        <v>0.2251395466435556</v>
+        <v>0.2902472387222222</v>
       </c>
       <c r="R3">
-        <v>2.026255919792</v>
+        <v>2.6122251485</v>
       </c>
       <c r="S3">
-        <v>0.1457172400213656</v>
+        <v>0.1719558623385981</v>
       </c>
       <c r="T3">
-        <v>0.1457172400213655</v>
+        <v>0.1728828249222563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,45 +670,45 @@
         <v>0.652628</v>
       </c>
       <c r="I4">
-        <v>0.2457683414549645</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="J4">
-        <v>0.2457683414549645</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.695528</v>
+        <v>0.0302125</v>
       </c>
       <c r="N4">
-        <v>2.086584</v>
+        <v>0.060425</v>
       </c>
       <c r="O4">
-        <v>0.3984669237071115</v>
+        <v>0.01608539050784934</v>
       </c>
       <c r="P4">
-        <v>0.3984669237071114</v>
+        <v>0.01078140135557499</v>
       </c>
       <c r="Q4">
-        <v>0.1513070158613333</v>
+        <v>0.006572507816666667</v>
       </c>
       <c r="R4">
-        <v>1.361763142752</v>
+        <v>0.0394350469</v>
       </c>
       <c r="S4">
-        <v>0.09793055496415864</v>
+        <v>0.003893857024506339</v>
       </c>
       <c r="T4">
-        <v>0.09793055496415863</v>
+        <v>0.002609898428138369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6676106666666667</v>
+        <v>0.2175426666666667</v>
       </c>
       <c r="H5">
-        <v>2.002832</v>
+        <v>0.652628</v>
       </c>
       <c r="I5">
-        <v>0.7542316585450355</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="J5">
-        <v>0.7542316585450355</v>
+        <v>0.2420741369384981</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01506066666666667</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="N5">
-        <v>0.045182</v>
+        <v>1.408603</v>
       </c>
       <c r="O5">
-        <v>0.008628232818297613</v>
+        <v>0.2499840499299749</v>
       </c>
       <c r="P5">
-        <v>0.008628232818297613</v>
+        <v>0.2513316391173685</v>
       </c>
       <c r="Q5">
-        <v>0.01005466171377778</v>
+        <v>0.1021437509648889</v>
       </c>
       <c r="R5">
-        <v>0.090491955424</v>
+        <v>0.9192937586839999</v>
       </c>
       <c r="S5">
-        <v>0.006507686348857315</v>
+        <v>0.06051467313518911</v>
       </c>
       <c r="T5">
-        <v>0.006507686348857315</v>
+        <v>0.06084088962467506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6811186666666668</v>
+      </c>
+      <c r="H6">
+        <v>2.043356</v>
+      </c>
+      <c r="I6">
+        <v>0.7579258630615019</v>
+      </c>
+      <c r="J6">
+        <v>0.7579258630615019</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.6676106666666667</v>
-      </c>
-      <c r="H6">
-        <v>2.002832</v>
-      </c>
-      <c r="I6">
-        <v>0.7542316585450355</v>
-      </c>
-      <c r="J6">
-        <v>0.7542316585450355</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>1.034921333333333</v>
+        <v>0.044302</v>
       </c>
       <c r="N6">
-        <v>3.104764</v>
+        <v>0.132906</v>
       </c>
       <c r="O6">
-        <v>0.592904843474591</v>
+        <v>0.02358675946309446</v>
       </c>
       <c r="P6">
-        <v>0.5929048434745909</v>
+        <v>0.02371390862331898</v>
       </c>
       <c r="Q6">
-        <v>0.6909245212942222</v>
+        <v>0.03017491917066667</v>
       </c>
       <c r="R6">
-        <v>6.218320691648</v>
+        <v>0.271574272536</v>
       </c>
       <c r="S6">
-        <v>0.4471876034532254</v>
+        <v>0.01787701502288992</v>
       </c>
       <c r="T6">
-        <v>0.4471876034532254</v>
+        <v>0.01797338465989063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +841,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6676106666666667</v>
+        <v>0.6811186666666668</v>
       </c>
       <c r="H7">
-        <v>2.002832</v>
+        <v>2.043356</v>
       </c>
       <c r="I7">
-        <v>0.7542316585450355</v>
+        <v>0.7579258630615019</v>
       </c>
       <c r="J7">
-        <v>0.7542316585450355</v>
+        <v>0.7579258630615019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.695528</v>
+        <v>1.334208333333333</v>
       </c>
       <c r="N7">
-        <v>2.086584</v>
+        <v>4.002625</v>
       </c>
       <c r="O7">
-        <v>0.3984669237071115</v>
+        <v>0.7103438000990813</v>
       </c>
       <c r="P7">
-        <v>0.3984669237071114</v>
+        <v>0.7141730509037375</v>
       </c>
       <c r="Q7">
-        <v>0.4643419117653333</v>
+        <v>0.9087542010555557</v>
       </c>
       <c r="R7">
-        <v>4.179077205888</v>
+        <v>8.178787809500001</v>
       </c>
       <c r="S7">
-        <v>0.3005363687429528</v>
+        <v>0.5383879377604831</v>
       </c>
       <c r="T7">
-        <v>0.3005363687429528</v>
+        <v>0.5412902259814811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6811186666666668</v>
+      </c>
+      <c r="H8">
+        <v>2.043356</v>
+      </c>
+      <c r="I8">
+        <v>0.7579258630615019</v>
+      </c>
+      <c r="J8">
+        <v>0.7579258630615019</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.0302125</v>
+      </c>
+      <c r="N8">
+        <v>0.060425</v>
+      </c>
+      <c r="O8">
+        <v>0.01608539050784934</v>
+      </c>
+      <c r="P8">
+        <v>0.01078140135557499</v>
+      </c>
+      <c r="Q8">
+        <v>0.02057829771666667</v>
+      </c>
+      <c r="R8">
+        <v>0.1234697863</v>
+      </c>
+      <c r="S8">
+        <v>0.012191533483343</v>
+      </c>
+      <c r="T8">
+        <v>0.008171502927436619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6811186666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.043356</v>
+      </c>
+      <c r="I9">
+        <v>0.7579258630615019</v>
+      </c>
+      <c r="J9">
+        <v>0.7579258630615019</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.408603</v>
+      </c>
+      <c r="O9">
+        <v>0.2499840499299749</v>
+      </c>
+      <c r="P9">
+        <v>0.2513316391173685</v>
+      </c>
+      <c r="Q9">
+        <v>0.3198085990742222</v>
+      </c>
+      <c r="R9">
+        <v>2.878277391668</v>
+      </c>
+      <c r="S9">
+        <v>0.1894693767947858</v>
+      </c>
+      <c r="T9">
+        <v>0.1904907494926935</v>
       </c>
     </row>
   </sheetData>
